--- a/Data/Temp/Scratch.xlsx
+++ b/Data/Temp/Scratch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RimelSte\Documents\UiPath\CReSTREF\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1295BF6-A2C7-45C3-ABF2-9CDDBED707C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622E51C-4621-42E4-91DB-625B42C63EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="230" windowWidth="14400" windowHeight="9350" xr2:uid="{6B0CFC03-8276-4087-8D9E-C523F4CE897F}"/>
+    <workbookView xWindow="3830" yWindow="340" windowWidth="14400" windowHeight="9350" xr2:uid="{6B0CFC03-8276-4087-8D9E-C523F4CE897F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>CReSTQueue</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Testing123</t>
+  </si>
+  <si>
+    <t>Testing12</t>
+  </si>
+  <si>
+    <t>TestQueues</t>
   </si>
 </sst>
 </file>
@@ -404,11 +422,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F21DD75-1FAB-4717-91AC-F30B710B51EE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -441,6 +466,90 @@
         <v>1190</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>555170</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>558110</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>559896</v>
+      </c>
+      <c r="C5">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>566445</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>566486</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>568308</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
